--- a/MyDataStructureTests/bin/Debug/netcoreapp3.1/测试需要/工作簿1.xlsx
+++ b/MyDataStructureTests/bin/Debug/netcoreapp3.1/测试需要/工作簿1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文档\C#\MyDataStructure\MyDataStructure\MyDataStructureTests\bin\Debug\netcoreapp3.1\测试需要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E374E3D6-259D-45DC-83BC-5DC6831B489E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE16AB6-03B5-4B88-B9F9-A5774B0E32A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6450" yWindow="1050" windowWidth="21600" windowHeight="11505" xr2:uid="{023DB665-0537-4866-9C43-8AAFDC4AA951}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>who</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +442,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,8 +468,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
